--- a/pred_ohlcv/54_21/2019-11-15 FNB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-15 FNB ohlcv.xlsx
@@ -6736,7 +6736,7 @@
         <v>-3529467.900857275</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-3548913.114257275</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-3547599.114257275</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-3547599.114257275</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-3681859.798357275</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-3681820.798357275</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-3883038.921657275</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-3883077.984157275</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-4106588.048357275</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-4102227.438157275</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-4102014.438157275</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-4140380.063257275</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-4140380.063257275</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-4140471.143457275</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-4140471.143457275</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-4140471.143457275</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-4269382.981757275</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-4269382.981757275</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-4267803.721258825</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-4267803.721258825</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>913947.566240445</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>5274755.803652287</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>6369209.727852288</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>6524204.908152288</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>5750937.679852288</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>6149518.259352288</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>5905187.523452288</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>4511040.108852289</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>3658563.953552289</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>4461831.053252289</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>4183064.277552289</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>5020535.537652289</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-15 FNB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-15 FNB ohlcv.xlsx
@@ -6736,7 +6736,7 @@
         <v>-3529467.900857275</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-3681859.798357275</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-3681859.798357275</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-3820729.353557275</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-3751549.353557275</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-3751549.353557275</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-3751549.353557275</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-3883077.921657275</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-4267803.721258825</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-4267803.721258825</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-4267762.721258825</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-4306128.346358825</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-4146983.706158825</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-4146983.706158825</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>913947.566240445</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>3733746.911752287</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>4773086.755352288</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>5274755.803652287</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>5274755.803652287</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>6369209.727852288</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>6369209.727852288</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>6524204.908152288</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>5750937.679852288</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>6149518.259352288</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>5905187.523452288</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>4511040.108852289</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>5352578.189752288</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>4847251.526152289</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>3658563.953552289</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>4461831.053252289</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>4183064.277552289</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>5020535.537652289</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>6108913.113752289</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>6325044.739152289</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>6325044.739152289</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>4681629.418052289</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>5111637.297552289</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>5111637.297552289</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
